--- a/Data/monopolization level by economic activity.xlsx
+++ b/Data/monopolization level by economic activity.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="3120" yWindow="6120" windowWidth="20560" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="monopoly by econ.act." sheetId="1" r:id="rId1"/>
     <sheet name="information " sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,9 +40,6 @@
     <t>Water supply and sanitation</t>
   </si>
   <si>
-    <t>Wholesale and retail trade (including auto)</t>
-  </si>
-  <si>
     <t>Transport, storage, mail</t>
   </si>
   <si>
@@ -42,9 +52,6 @@
     <t>Finance and Insurance</t>
   </si>
   <si>
-    <t>Prof., scientific and technical activities</t>
-  </si>
-  <si>
     <t>Administration and services</t>
   </si>
   <si>
@@ -69,18 +76,12 @@
     <t>Monopolized markets</t>
   </si>
   <si>
-    <t>Markets with signs of dominance</t>
-  </si>
-  <si>
     <t>Oligopoly</t>
   </si>
   <si>
     <t>Competitive markets</t>
   </si>
   <si>
-    <t>aconomic activity</t>
-  </si>
-  <si>
     <t>type of the market</t>
   </si>
   <si>
@@ -91,13 +92,25 @@
   </si>
   <si>
     <t>Data reflects the level of the monopolization of the markets by economic activity in 2015 year</t>
+  </si>
+  <si>
+    <t>economic activity</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade (incl. auto)</t>
+  </si>
+  <si>
+    <t>With signs of dominance</t>
+  </si>
+  <si>
+    <t>Prof., scientific and tech. activities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +123,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -133,8 +164,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -145,18 +178,25 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,14 +234,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -228,14 +268,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -262,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,731 +479,732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2.77</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1.33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>95.67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1.22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>47.44</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>50.45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1.32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>22.94</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>50.74</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>30.48</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>69.52</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>96.16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>3.84</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>22.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>18.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>49.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>2.58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>20.49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>10.45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>66.48</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>39.380000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>3.83</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>19.02</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>61.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>9.99</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>28.27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>0.18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>60.15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>5.77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>33.909999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>1.95</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>6.88</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>19.78</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>71.39</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>0.61</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>18.16</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>80.94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>64.72</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>4.54</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>5.09</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>25.65</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>3.77</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>44.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>10.99</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>40.729999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>3.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>91.52</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>1.58</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>3.08</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>50.2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>11.36</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>29.89</v>
@@ -1174,21 +1217,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1197,12 +1240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
